--- a/data/trans_dic/P1417-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1417-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02972074350425569</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.03843131943127159</v>
+        <v>0.03843131943127158</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.009706536039943939</v>
@@ -714,34 +714,34 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002827204679177698</v>
+        <v>0.002692680849541086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009365967964576519</v>
+        <v>0.009079922651668158</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008498632794895176</v>
+        <v>0.008491932934252345</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01459957444150943</v>
+        <v>0.01441614877295088</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01842149477625152</v>
+        <v>0.01842442403268215</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02800165124530635</v>
+        <v>0.028872745231151</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005362848870691124</v>
+        <v>0.005130147520085415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007272850300157856</v>
+        <v>0.007868856018259308</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01239259721808045</v>
+        <v>0.01273491669960153</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02125806304907604</v>
+        <v>0.02141324032879658</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01332375057194695</v>
+        <v>0.01332765763501203</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006990260316698101</v>
+        <v>0.006953224850211075</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01811744501524783</v>
+        <v>0.01677853457343415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02594762512598872</v>
+        <v>0.02582954962014435</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0280121108059254</v>
+        <v>0.02790265919240686</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04136430760755998</v>
+        <v>0.03857647011588879</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04477173128035226</v>
+        <v>0.04686603966963076</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05283271400091807</v>
+        <v>0.05100779014336197</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01611728138124285</v>
+        <v>0.01623049584909533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02132623473926306</v>
+        <v>0.02045693737292801</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02715686735510312</v>
+        <v>0.02896358247800022</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03584657861237352</v>
+        <v>0.03633582707556621</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.008010718947133027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01492391341286399</v>
+        <v>0.01492391341286398</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01313049585061101</v>
@@ -833,7 +833,7 @@
         <v>0.01432949172242433</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02838237054671523</v>
+        <v>0.02838237054671522</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001038314763960117</v>
+        <v>0.001038878524289025</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002982203644777606</v>
+        <v>0.003137286463882748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003932447694129561</v>
+        <v>0.003989945271023714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00930960845580059</v>
+        <v>0.009526068015517716</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007194247539643668</v>
+        <v>0.006898648494091378</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0223110824662154</v>
+        <v>0.02279099883560928</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01334263861096461</v>
+        <v>0.01346458433428597</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03230618918875023</v>
+        <v>0.03258893449183403</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004729128873972938</v>
+        <v>0.004596421567410874</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01450371895036122</v>
+        <v>0.01417241846253925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009433484880416548</v>
+        <v>0.00962862394629594</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02266149849174984</v>
+        <v>0.02305299384453668</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008582590598312885</v>
+        <v>0.008521086162786073</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01419763289384232</v>
+        <v>0.0142680474622341</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01467060224774</v>
+        <v>0.01520903549653975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02248734720340154</v>
+        <v>0.02262216639766398</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0226969889676275</v>
+        <v>0.02186177395770364</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04650461289393631</v>
+        <v>0.04481007635456375</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03120167054254179</v>
+        <v>0.03151096552565395</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05137442058399252</v>
+        <v>0.05249632953318644</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.013163398168926</v>
+        <v>0.01279979482774361</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0273989563105415</v>
+        <v>0.02810284653019944</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01987344536188339</v>
+        <v>0.02008411850635507</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03503899629432932</v>
+        <v>0.03520610031304958</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02175328465078135</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05776846945612513</v>
+        <v>0.05776846945612515</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01576762533414227</v>
@@ -969,7 +969,7 @@
         <v>0.01413586231499728</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0343626058250853</v>
+        <v>0.03436260582508531</v>
       </c>
     </row>
     <row r="11">
@@ -986,34 +986,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002196821128284811</v>
+        <v>0.002365920784456781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0050167555744066</v>
+        <v>0.005289558744136684</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01638591880610581</v>
+        <v>0.01711315217965424</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01587307383507899</v>
+        <v>0.01665489471360414</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01256439221487749</v>
+        <v>0.01285465618750313</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04380998567071526</v>
+        <v>0.04403243377461415</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009676131560134643</v>
+        <v>0.01027825916369475</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.009198321983889772</v>
+        <v>0.008834720766731306</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009324416459416045</v>
+        <v>0.009217773005564001</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02622501326006821</v>
+        <v>0.0263199819244848</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01418350930315082</v>
+        <v>0.01455578800035156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.006991096064301612</v>
+        <v>0.007019205063807996</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01417251512197028</v>
+        <v>0.01402561072891068</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01963082797821663</v>
+        <v>0.02035514314120433</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0436565994803137</v>
+        <v>0.04156526707364095</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04054626865847975</v>
+        <v>0.0407887959330597</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03396262884588804</v>
+        <v>0.03392533702500195</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07569691813629432</v>
+        <v>0.07707024196862493</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02403118417166829</v>
+        <v>0.02390784105634238</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02206812201633626</v>
+        <v>0.02177616925290237</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02160029704821995</v>
+        <v>0.02112083234956286</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04426129430182424</v>
+        <v>0.04439538500927064</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0009615136502980665</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.008730761595895312</v>
+        <v>0.008730761595895316</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01472967753786803</v>
@@ -1093,7 +1093,7 @@
         <v>0.02720438510653621</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04393574522744474</v>
+        <v>0.04393574522744473</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01033292918606069</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00267198629034256</v>
+        <v>0.00193799489562227</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002131445471715036</v>
+        <v>0.003055315464430588</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004878368426354033</v>
+        <v>0.004566337210127811</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008356143480325541</v>
+        <v>0.008419716321362595</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01629353654775767</v>
+        <v>0.01608194252469071</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0180960051070725</v>
+        <v>0.01811179902508944</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03497993707021213</v>
+        <v>0.03476182583135398</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00647235954137903</v>
+        <v>0.006552063391080705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01065391016200806</v>
+        <v>0.01102565888019161</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.009708213217929524</v>
+        <v>0.009686446805107655</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0218852418380804</v>
+        <v>0.02177542259706519</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01208829338890645</v>
+        <v>0.01113065665007943</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01289904129821412</v>
+        <v>0.01373731513499587</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005261449782831422</v>
+        <v>0.004831758777486524</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01505681311869062</v>
+        <v>0.01493264858399212</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02594395748162681</v>
+        <v>0.02439960922504199</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03523167550588089</v>
+        <v>0.03340971222096391</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03987421838668032</v>
+        <v>0.03902168456348051</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05473429424001727</v>
+        <v>0.0550445975856081</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01638165785484329</v>
+        <v>0.01563573415590991</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02208952093146469</v>
+        <v>0.02188025039897559</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02100224661195233</v>
+        <v>0.02087786167722194</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03394920859005658</v>
+        <v>0.03340442381438204</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0245092683986497</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04518691758360206</v>
+        <v>0.04518691758360205</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01069061083892849</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002672004141995643</v>
+        <v>0.002653860685908679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003640441964778206</v>
+        <v>0.003335593122821811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009423033397550198</v>
+        <v>0.009429766511322778</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0223115472155917</v>
+        <v>0.02206987616510577</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01977555351011983</v>
+        <v>0.01953636787609515</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.038814463212143</v>
+        <v>0.03993715915549653</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01321933288778764</v>
+        <v>0.01328377755450758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01283276076392343</v>
+        <v>0.01240378695154584</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0259621351950043</v>
+        <v>0.02579970112851944</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.007446310442123063</v>
+        <v>0.007045456988643975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008610046315213045</v>
+        <v>0.008276559108519611</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01617218722224698</v>
+        <v>0.01586575757239109</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03333290930711814</v>
+        <v>0.03350094007446795</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03037864013392986</v>
+        <v>0.0303293833949761</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05095528284109851</v>
+        <v>0.0517771648545118</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01952213042737943</v>
+        <v>0.01931972429695555</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01841215079889297</v>
+        <v>0.01834125632238676</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03299524051875944</v>
+        <v>0.03277247341510115</v>
       </c>
     </row>
     <row r="19">
@@ -1606,34 +1606,34 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1908</v>
+        <v>1817</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6456</v>
+        <v>6259</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5850</v>
+        <v>5845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10177</v>
+        <v>10049</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12395</v>
+        <v>12397</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20510</v>
+        <v>21148</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7413</v>
+        <v>7092</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10186</v>
+        <v>11020</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16701</v>
+        <v>17162</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>30224</v>
+        <v>30445</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9247</v>
+        <v>9250</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4917</v>
+        <v>4891</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12226</v>
+        <v>11322</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17887</v>
+        <v>17805</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19282</v>
+        <v>19207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28833</v>
+        <v>26890</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30124</v>
+        <v>31533</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38697</v>
+        <v>37360</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22280</v>
+        <v>22436</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29868</v>
+        <v>28650</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>36598</v>
+        <v>39032</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>50966</v>
+        <v>51662</v>
       </c>
     </row>
     <row r="8">
@@ -1783,37 +1783,37 @@
         <v>999</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3036</v>
+        <v>3194</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4021</v>
+        <v>4079</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9756</v>
+        <v>9982</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6967</v>
+        <v>6681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22958</v>
+        <v>23451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13915</v>
+        <v>14042</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>34530</v>
+        <v>34832</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9128</v>
+        <v>8872</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>29688</v>
+        <v>29010</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>19483</v>
+        <v>19886</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>47969</v>
+        <v>48797</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8255</v>
+        <v>8196</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14452</v>
+        <v>14524</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15000</v>
+        <v>15550</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23565</v>
+        <v>23706</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21980</v>
+        <v>21171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>47852</v>
+        <v>46108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32541</v>
+        <v>32863</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>54911</v>
+        <v>56110</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25408</v>
+        <v>24706</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>56083</v>
+        <v>57524</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41046</v>
+        <v>41481</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>74169</v>
+        <v>74522</v>
       </c>
     </row>
     <row r="12">
@@ -1966,34 +1966,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1669</v>
+        <v>1797</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4013</v>
+        <v>4231</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11205</v>
+        <v>11703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12336</v>
+        <v>12944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9863</v>
+        <v>10091</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35527</v>
+        <v>35708</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13182</v>
+        <v>14003</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14118</v>
+        <v>13560</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>14402</v>
+        <v>14237</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>42244</v>
+        <v>42397</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9624</v>
+        <v>9876</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5297</v>
+        <v>5318</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10765</v>
+        <v>10653</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15702</v>
+        <v>16282</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29854</v>
+        <v>28424</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31512</v>
+        <v>31700</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26661</v>
+        <v>26632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>61386</v>
+        <v>62500</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32739</v>
+        <v>32571</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>33870</v>
+        <v>33422</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>33363</v>
+        <v>32622</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71297</v>
+        <v>71513</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2518</v>
+        <v>1826</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2020</v>
+        <v>2896</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4830</v>
+        <v>4521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8679</v>
+        <v>8745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17122</v>
+        <v>16900</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18888</v>
+        <v>18905</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39051</v>
+        <v>38807</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12821</v>
+        <v>12979</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21293</v>
+        <v>22036</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19235</v>
+        <v>19192</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>46100</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11390</v>
+        <v>10488</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12225</v>
+        <v>13019</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4933</v>
+        <v>4530</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14907</v>
+        <v>14784</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26946</v>
+        <v>25342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37023</v>
+        <v>35109</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41620</v>
+        <v>40730</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>61104</v>
+        <v>61450</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32449</v>
+        <v>30972</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>44148</v>
+        <v>43730</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>41613</v>
+        <v>41366</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>71512</v>
+        <v>70364</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9156</v>
+        <v>9094</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12357</v>
+        <v>11322</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>33237</v>
+        <v>33261</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>79296</v>
+        <v>78437</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>70095</v>
+        <v>69247</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>144723</v>
+        <v>148909</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>92282</v>
+        <v>92732</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>89045</v>
+        <v>86069</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>188376</v>
+        <v>187197</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25517</v>
+        <v>24143</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29226</v>
+        <v>28094</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>57042</v>
+        <v>55962</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>118467</v>
+        <v>119064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>107678</v>
+        <v>107504</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>189991</v>
+        <v>193056</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>136281</v>
+        <v>134868</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>127760</v>
+        <v>127268</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>239407</v>
+        <v>237790</v>
       </c>
     </row>
     <row r="24">
